--- a/_Lang_Korean/Lang/KR/Dialog/Drama/poppy.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/Drama/poppy.xlsx
@@ -8,9 +8,9 @@
     <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="loytel" sheetId="1" r:id="rId2"/>
+    <sheet name="loytel" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
     <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">=,*puppy,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,*puppy,-1</t>
   </si>
   <si>
     <t xml:space="preserve">quest</t>
@@ -237,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -255,14 +258,10 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+      <alignment/>
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
@@ -353,17 +352,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L21" sqref="L21"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -443,136 +548,139 @@
       </c>
     </row>
     <row r="8" ht="12.8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="12.8">
-      <c r="I9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="12.8">
-      <c r="B10" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="12.8">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" ht="12.8">
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" ht="12.8">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="12.8">
-      <c r="I14" s="1">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
+      <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
-      <c r="E16" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="12.8">
       <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" ht="12.8">
       <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" ht="12.8">
-      <c r="A20" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8">
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="12.8">
-      <c r="I21" s="1">
+    <row r="22" ht="12.8">
+      <c r="I22" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" ht="12.8">
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" ht="12.8">
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" ht="12.8">
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="12.8">
@@ -580,39 +688,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" ht="13.8">
-      <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
+    <row r="26" ht="12.8">
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" ht="13.8">
-      <c r="J30" s="5"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" ht="13.8">
-      <c r="J31" s="3"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" ht="13.8">
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" ht="13.8">
-      <c r="J33" s="6"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" ht="13.8">
       <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
     </row>
     <row r="35" ht="13.8">
-      <c r="J35" s="6"/>
-    </row>
-    <row r="38" ht="35.05">
-      <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="44" ht="105.95">
-      <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" ht="13.8">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="39" ht="35.05">
+      <c r="J39" s="4"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="45" ht="105.95">
+      <c r="J45" s="4"/>
+      <c r="K45" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
